--- a/stat/LAB_4_DATA_2024.xlsx
+++ b/stat/LAB_4_DATA_2024.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SAMGU_2022\STAT_ANALYSE\LABORATORKI\LAB_4\LAB_4_2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sda\stat\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBD2710-8C90-41BA-B2DE-48DD97AA0833}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8160"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ДАННЫЕ" sheetId="2" r:id="rId1"/>
@@ -21,22 +22,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>СТАЖ РАБОТЫ (лет)</t>
+    <t>ОБРАЗОВАНИЕ</t>
   </si>
   <si>
-    <t>ВРЕМЯ, ЗАТРАЧЕННОЕ НА ОБРАЗОВАНИЕ (лет)</t>
+    <t>СТАЖ</t>
   </si>
   <si>
-    <t>Зарплата (долл. в час)</t>
+    <t>ПОЛ</t>
   </si>
   <si>
-    <t>ПОЛ (1-жен, 0- муж)</t>
+    <t>ЗП</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -405,11 +406,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV541"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -425,16 +426,16 @@
   <sheetData>
     <row r="1" spans="1:48" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
       </c>
       <c r="G1" s="9"/>
       <c r="H1" s="10"/>
